--- a/data/trans_camb/P62-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P62-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-6.2682243373534</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-1.132260157261888</v>
+        <v>-1.132260157261877</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.565962927100988</v>
@@ -664,7 +664,7 @@
         <v>4.093136454915392</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.94667354054262</v>
+        <v>10.94667354054263</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.14595393494208</v>
+        <v>-13.27485932169416</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.0236200812428</v>
+        <v>-11.22482138942256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.739722021112403</v>
+        <v>-6.165259068008313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.222165583093236</v>
+        <v>2.568924710424087</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.954822900490049</v>
+        <v>3.918142110399513</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>13.46723645758572</v>
+        <v>13.67613640197288</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.020853704961551</v>
+        <v>-1.239739154394233</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.914952531502764</v>
+        <v>0.5083282225446224</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.821648404699516</v>
+        <v>7.479569964150961</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.000095229186001</v>
+        <v>-4.088471047534549</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.55932711290217</v>
+        <v>-1.465356223011012</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.899214488400963</v>
+        <v>3.36991536608457</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.13974991812048</v>
+        <v>10.70723500915117</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.98878739634051</v>
+        <v>12.79471480013445</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.37915193338066</v>
+        <v>21.61908104458097</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.428806691853175</v>
+        <v>5.161415973469311</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.848901561834863</v>
+        <v>7.439744253771257</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.17377271025772</v>
+        <v>14.15906653304029</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.0796155835839973</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.01438135400676733</v>
+        <v>-0.01438135400676719</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1690137662588467</v>
@@ -769,7 +769,7 @@
         <v>0.07699351314876093</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2059112522786351</v>
+        <v>0.2059112522786353</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.164019672480905</v>
+        <v>-0.1657683795117349</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1372115030094257</v>
+        <v>-0.1398541602650961</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.07185506900337016</v>
+        <v>-0.07621659059668617</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04913035188543755</v>
+        <v>0.06145790121050658</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1004493719121961</v>
+        <v>0.09495424113599059</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3295042643551872</v>
+        <v>0.3315788866903194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01866072339626143</v>
+        <v>-0.02246979268875383</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.01612183069977435</v>
+        <v>0.009359140038946752</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1432900090795314</v>
+        <v>0.1352982688796386</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.05261850306311463</v>
+        <v>-0.05332420630675382</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.02051456561829242</v>
+        <v>-0.02007868808264721</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05090490687684186</v>
+        <v>0.04411408620192057</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.299096884845043</v>
+        <v>0.291601441099112</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3523632702820278</v>
+        <v>0.3412161065552317</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5828692003126498</v>
+        <v>0.5859639672631547</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1060165065381319</v>
+        <v>0.1010457593809976</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1517348532099317</v>
+        <v>0.1439845242818557</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2758268970516134</v>
+        <v>0.2742725672883218</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.717394645414802</v>
+        <v>-8.00118280107937</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7426506886730364</v>
+        <v>-0.8516216836686314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.932583425815178</v>
+        <v>9.436248909503727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.506864325120756</v>
+        <v>3.312268503151824</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.527450115052661</v>
+        <v>8.398427342371654</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.24840630910556</v>
+        <v>14.28584151397992</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.284242017978369</v>
+        <v>1.297329381771295</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.584589923514461</v>
+        <v>7.627044733972391</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>14.73590883080421</v>
+        <v>15.02250168989674</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.785061086948436</v>
+        <v>1.507862577009922</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.163299066667239</v>
+        <v>8.666285221503275</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.83115084666987</v>
+        <v>20.33338925717445</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.557448871368416</v>
+        <v>8.816127828908083</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.28860936741602</v>
+        <v>13.96400979885461</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.71616037401303</v>
+        <v>19.74886537487437</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.52133264716671</v>
+        <v>6.827143135061214</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.94174079811168</v>
+        <v>12.95288211152085</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.1714028148363</v>
+        <v>20.50016326588852</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2364565417868931</v>
+        <v>-0.2388416830098899</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.02550571648866132</v>
+        <v>-0.02526137398909753</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2964427290684885</v>
+        <v>0.2859312243365325</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3596874146940184</v>
+        <v>0.3476657339552519</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8620982469464368</v>
+        <v>0.8687083941280664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.424704158676839</v>
+        <v>1.410608462968751</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06813596181951269</v>
+        <v>0.06912185630724856</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4355277074816353</v>
+        <v>0.4249836317441744</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8185339123076004</v>
+        <v>0.840517770614483</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06425824364604399</v>
+        <v>0.0559866607119564</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3336908328122534</v>
+        <v>0.322495054793715</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7717576646275742</v>
+        <v>0.7537092804774743</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.355963834902663</v>
+        <v>1.206463462882443</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.97291003368915</v>
+        <v>1.911233186022419</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.824904396132701</v>
+        <v>2.740953564627226</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4373165176417186</v>
+        <v>0.4614227328374544</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8723824647459859</v>
+        <v>0.8806474628734082</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.352849106118938</v>
+        <v>1.386322848334193</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-25.12581811806768</v>
+        <v>-24.91192890063667</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.61389333267011</v>
+        <v>-16.82144568065311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.036916228400891</v>
+        <v>2.96093967771109</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.91453808382022</v>
+        <v>-14.96025742097764</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.049697326447649</v>
+        <v>-8.412700135787162</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.831364796491052</v>
+        <v>3.879983517670702</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-17.19434834505894</v>
+        <v>-15.95781490382979</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.37350899817538</v>
+        <v>-9.341257357415948</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.60814768897443</v>
+        <v>7.138934072387604</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.849741799196271</v>
+        <v>-1.61016964948648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.04781214036171</v>
+        <v>5.129810741614708</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.64038089455189</v>
+        <v>25.34278084972236</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.068586160556561</v>
+        <v>1.759550111977457</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.623816198086999</v>
+        <v>8.758603169014625</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.82984264699677</v>
+        <v>20.22499020777768</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-3.150116875106371</v>
+        <v>-2.661572873085956</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.794381514463216</v>
+        <v>4.077514214944774</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>19.96833966274529</v>
+        <v>21.22995593386073</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.0015832354389688</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5508393890110174</v>
+        <v>0.5508393890110177</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3147458028842489</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5308139160590806</v>
+        <v>-0.5275886179982432</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3654020419933112</v>
+        <v>-0.3484848903378325</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.08327904990789406</v>
+        <v>0.05943823803829407</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5298472305929474</v>
+        <v>-0.5501725259724912</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3050098766288503</v>
+        <v>-0.3238181987626287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1743504168533906</v>
+        <v>0.1398736436606563</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4922327713644651</v>
+        <v>-0.4673229663533891</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.288691804595532</v>
+        <v>-0.2683595139068556</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1909060098471443</v>
+        <v>0.2004222075669117</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.04630286725895705</v>
+        <v>-0.04046445101145479</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1418945079450492</v>
+        <v>0.1400409455064968</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7707666418943208</v>
+        <v>0.6990271240849483</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1127623793041561</v>
+        <v>0.1338555839486188</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4828050880679673</v>
+        <v>0.5020591069319543</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.143847817057888</v>
+        <v>1.17404200111654</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1109283845267216</v>
+        <v>-0.09003552352003889</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1373539753130032</v>
+        <v>0.1466735022240354</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7339039882348642</v>
+        <v>0.8134150883878682</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>5.581294157261604</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>12.17268822712596</v>
+        <v>12.17268822712595</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.08111049353268229</v>
@@ -1306,7 +1306,7 @@
         <v>1.772001893875053</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>8.847658832054428</v>
+        <v>8.847658832054423</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.83908710543019</v>
+        <v>-13.82536459462374</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.5524847566488</v>
+        <v>-11.44513398797588</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.351574664687405</v>
+        <v>-3.468301511997043</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.752637638699307</v>
+        <v>1.720102511931746</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.047499583069169</v>
+        <v>3.111627771766288</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.740233586004953</v>
+        <v>9.550313110003426</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.245242424654989</v>
+        <v>-2.134489971369304</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.4956744954382234</v>
+        <v>-0.5270435258805823</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.889536861676874</v>
+        <v>6.785056300391415</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-7.371439250257676</v>
+        <v>-7.121273451228773</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.88271530313142</v>
+        <v>-4.555061835142219</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.399510368532717</v>
+        <v>4.292602129155513</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.767015616348528</v>
+        <v>7.046724285854826</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.062351058109329</v>
+        <v>8.168307749941766</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.64352887263519</v>
+        <v>14.39605995749707</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.030605315460856</v>
+        <v>2.189332832230997</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.004713965747958</v>
+        <v>3.915634900804303</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.16596663602469</v>
+        <v>11.00050586229051</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.2265360153231964</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4940704089493214</v>
+        <v>0.4940704089493211</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.002277496088418643</v>
@@ -1411,7 +1411,7 @@
         <v>0.04975592190601975</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.248432816816079</v>
+        <v>0.2484328168160789</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2481947942619402</v>
+        <v>-0.2429316113663477</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2044237708233964</v>
+        <v>-0.2053375838525151</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05974804681041233</v>
+        <v>-0.06120657032460978</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06630291495457059</v>
+        <v>0.06415435533353422</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1217836189304153</v>
+        <v>0.1164906500464976</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3738725295686085</v>
+        <v>0.3648400361299845</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.061416965847286</v>
+        <v>-0.05839957044397796</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01293842924931846</v>
+        <v>-0.01444079347863626</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1870876816373974</v>
+        <v>0.1857103755986907</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1400485539466073</v>
+        <v>-0.1327923275444311</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.09198251842608296</v>
+        <v>-0.08692529691558387</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08454424224669958</v>
+        <v>0.08089158850813934</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.28990968219781</v>
+        <v>0.3001350038531162</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3493759134330069</v>
+        <v>0.3488836311502831</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.623029174052623</v>
+        <v>0.6145168721289507</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.05828637363116968</v>
+        <v>0.06424636264758919</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1159986592330618</v>
+        <v>0.1132426168149397</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3252865749382161</v>
+        <v>0.3210625091110413</v>
       </c>
     </row>
     <row r="28">
